--- a/功能權限1060209.xlsx
+++ b/功能權限1060209.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="149">
   <si>
     <t>SDS.1.9.1</t>
   </si>
@@ -456,18 +456,6 @@
   </si>
   <si>
     <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檢視</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>確認</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -499,21 +487,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>輸入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>輸入
 確認</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SDS.5.4.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入(?)
-確認</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -533,34 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>輸入
-調出確認</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入
-調入確認</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入
-調出確認(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>確認</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入
-確認(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>料件/設備領料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,15 +554,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>送修確認</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>無</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>檢視</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入
+送修確認
+收件確認
+收件退回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>報價退回
+確修確認</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入
+報價確認</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入
+驗收確認</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入
+調出確認
+調入確認</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -790,7 +765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,6 +876,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1207,10 +1185,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="5" t="s">
         <v>32</v>
       </c>
@@ -2035,9 +2013,9 @@
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2054,11 +2032,11 @@
     <col min="12" max="12" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="21" t="s">
         <v>32</v>
       </c>
@@ -2073,13 +2051,13 @@
         <v>118</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L1" s="24" t="s">
         <v>117</v>
@@ -2210,8 +2188,8 @@
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="G8" s="27"/>
-      <c r="H8" s="31" t="s">
-        <v>32</v>
+      <c r="H8" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>32</v>
@@ -2220,10 +2198,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2239,8 +2217,8 @@
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="G9" s="27"/>
-      <c r="H9" s="31" t="s">
-        <v>32</v>
+      <c r="H9" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>32</v>
@@ -2249,10 +2227,10 @@
         <v>32</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.25">
@@ -2270,20 +2248,20 @@
       </c>
       <c r="E10" s="21"/>
       <c r="G10" s="27"/>
-      <c r="H10" s="32" t="s">
-        <v>127</v>
+      <c r="H10" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>32</v>
+        <v>124</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>120</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="33" x14ac:dyDescent="0.25">
@@ -2301,20 +2279,20 @@
       </c>
       <c r="E11" s="21"/>
       <c r="G11" s="27"/>
-      <c r="H11" s="32" t="s">
-        <v>127</v>
+      <c r="H11" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>32</v>
+        <v>124</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>120</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2355,10 +2333,10 @@
         <v>32</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2384,10 +2362,10 @@
         <v>32</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.25">
@@ -2411,11 +2389,11 @@
       <c r="I15" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="J15" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>122</v>
+      <c r="J15" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>115</v>
       </c>
       <c r="L15" s="23" t="s">
         <v>121</v>
@@ -2436,17 +2414,17 @@
       </c>
       <c r="E16" s="21"/>
       <c r="G16" s="27"/>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="I16" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>119</v>
+      <c r="J16" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>115</v>
       </c>
       <c r="L16" s="23" t="s">
         <v>121</v>
@@ -2467,17 +2445,17 @@
       </c>
       <c r="E17" s="21"/>
       <c r="G17" s="27"/>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>119</v>
+      <c r="J17" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>115</v>
       </c>
       <c r="L17" s="23" t="s">
         <v>121</v>
@@ -2513,25 +2491,25 @@
       </c>
       <c r="E19" s="21"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="32" t="s">
-        <v>134</v>
+      <c r="H19" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>44</v>
@@ -2544,20 +2522,20 @@
       </c>
       <c r="E20" s="21"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="32" t="s">
-        <v>134</v>
+      <c r="H20" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2580,7 +2558,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>33</v>
@@ -2590,14 +2568,14 @@
       </c>
       <c r="E22" s="21"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="24" t="s">
-        <v>120</v>
+      <c r="H22" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="I22" s="24" t="s">
         <v>120</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K22" s="23" t="s">
         <v>119</v>
@@ -2611,7 +2589,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>33</v>
@@ -2621,14 +2599,14 @@
       </c>
       <c r="E23" s="21"/>
       <c r="G23" s="27"/>
-      <c r="H23" s="24" t="s">
-        <v>120</v>
+      <c r="H23" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="I23" s="24" t="s">
         <v>120</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>119</v>
@@ -2665,28 +2643,28 @@
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="G25" s="27"/>
-      <c r="H25" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>121</v>
+      <c r="H25" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>115</v>
       </c>
       <c r="L25" s="23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="36" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="36" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>33</v>
@@ -2698,25 +2676,25 @@
         <v>66</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>153</v>
+        <v>137</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="J26" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="K26" s="25" t="s">
-        <v>154</v>
-      </c>
       <c r="L26" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="36" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="36" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>22</v>
       </c>
@@ -2733,25 +2711,25 @@
         <v>68</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="L27" s="25" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="36" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>23</v>
       </c>
@@ -2766,22 +2744,22 @@
       </c>
       <c r="E28" s="25"/>
       <c r="G28" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="J28" s="31" t="s">
-        <v>149</v>
+        <v>138</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="L28" s="25" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="36" customFormat="1" ht="33" x14ac:dyDescent="0.25">
@@ -2799,20 +2777,20 @@
       </c>
       <c r="E29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>142</v>
+      <c r="H29" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="K29" s="25" t="s">
         <v>115</v>
       </c>
       <c r="L29" s="25" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2835,7 +2813,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>69</v>
@@ -2845,8 +2823,8 @@
         <v>70</v>
       </c>
       <c r="G31" s="27"/>
-      <c r="H31" s="27" t="s">
-        <v>119</v>
+      <c r="H31" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="I31" s="23" t="s">
         <v>119</v>
@@ -2861,7 +2839,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="36" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="36" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>27</v>
       </c>
@@ -2878,16 +2856,16 @@
         <v>72</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>140</v>
+        <v>130</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="K32" s="24" t="s">
         <v>121</v>
@@ -2896,7 +2874,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="36" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="36" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>28</v>
       </c>
@@ -2913,19 +2891,19 @@
         <v>74</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H33" s="32" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J33" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="K33" s="32" t="s">
-        <v>136</v>
+      <c r="K33" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="L33" s="25" t="s">
         <v>121</v>
@@ -2947,13 +2925,13 @@
       <c r="E34" s="21"/>
       <c r="G34" s="27"/>
       <c r="H34" s="24" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="I34" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="J34" s="27" t="s">
-        <v>119</v>
+      <c r="J34" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="K34" s="24" t="s">
         <v>121</v>
